--- a/src/routes/api/excel/files/ExcelFile.xlsx
+++ b/src/routes/api/excel/files/ExcelFile.xlsx
@@ -25,7 +25,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF276255"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
